--- a/writeup/figs/4_gen_ec.xlsx
+++ b/writeup/figs/4_gen_ec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="90" windowWidth="18180" windowHeight="7090"/>
+    <workbookView xWindow="400" yWindow="90" windowWidth="18180" windowHeight="7090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="116" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,8 +70,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,9 +376,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -399,49 +409,121 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>0.75660000000000005</v>
-      </c>
-      <c r="D2">
-        <v>29.6</v>
-      </c>
-      <c r="E2">
-        <v>0.151</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D2" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="D3" s="2">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0.76290000000000002</v>
-      </c>
-      <c r="D3">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="E3">
-        <v>0.16700000000000001</v>
-      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.76339999999999997</v>
+      </c>
+      <c r="D4" s="2">
+        <v>36.6</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.75649999999999995</v>
+      </c>
+      <c r="D5" s="2">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.75760000000000005</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30.9</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,37 +554,108 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>0.76580000000000004</v>
-      </c>
-      <c r="D2">
-        <v>27.3</v>
-      </c>
-      <c r="E2">
-        <v>0.17199999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.218</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.7651</v>
+      </c>
+      <c r="D3" s="2">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0.77070000000000005</v>
-      </c>
-      <c r="D3">
-        <v>31.13</v>
-      </c>
-      <c r="E3">
-        <v>0.186</v>
-      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.77049999999999996</v>
+      </c>
+      <c r="D4" s="2">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D5" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.76690000000000003</v>
+      </c>
+      <c r="D6" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
